--- a/trunk/HT_Sprint3Features.xlsx
+++ b/trunk/HT_Sprint3Features.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Complete Menus</t>
   </si>
@@ -54,10 +54,94 @@
     <t>Tally Screen</t>
   </si>
   <si>
-    <t>All Player Types and Attacks</t>
-  </si>
-  <si>
     <t>Pathfinding</t>
+  </si>
+  <si>
+    <t>Character State Machines</t>
+  </si>
+  <si>
+    <t>Key bindings</t>
+  </si>
+  <si>
+    <t>Mouse control</t>
+  </si>
+  <si>
+    <t>Sound Effects / Background Music</t>
+  </si>
+  <si>
+    <t>Boss AI</t>
+  </si>
+  <si>
+    <t>Save/Load</t>
+  </si>
+  <si>
+    <t>As a player, I want to have an easy to navigate menu system with all options available</t>
+  </si>
+  <si>
+    <t>As a player, I want a screen that I have to press start to continue</t>
+  </si>
+  <si>
+    <t>As a player, I want a summary of my accomplishments of the level</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to save my progress in separate profiles so I may load them up later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player, I want to be able to use the in game interface effectively </t>
+  </si>
+  <si>
+    <t>All Player Attacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Player Types </t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to use the full range of attacks available to me</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to collect and use all of the powerups available to me</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to control all of the types of units available to me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player, I want to be able to change the full range of hotkeys </t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to use the mouse to select and control the units, pick up items and control the camera</t>
+  </si>
+  <si>
+    <t>As a programmer, I want to have a system to play dialogue at the right time</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able play all of the levels</t>
+  </si>
+  <si>
+    <t>As a tester, I want to be able to enter a cheat code to further me in the game</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to complete levels or be able to die and have to start over</t>
+  </si>
+  <si>
+    <t>As a developer, I want characters to behave differently using different states to control them</t>
+  </si>
+  <si>
+    <t>As a player, I want enemies to make informed decisions</t>
+  </si>
+  <si>
+    <t>As a player, when I'm not controlling the survivors, I want them to make basic decisions based on their type</t>
+  </si>
+  <si>
+    <t>As a player, I want bosses to use their abilities to make challenging battles</t>
+  </si>
+  <si>
+    <t>As a player, I want all units to avoid solid objects in order to reach their destination</t>
+  </si>
+  <si>
+    <t>As a player, I want to hear background music and sound effects all throughout the game</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to save progress throughout the levels</t>
   </si>
 </sst>
 </file>
@@ -99,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -111,6 +195,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B40"/>
+  <dimension ref="B2:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,150 +507,194 @@
     <col min="4" max="4" width="140.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" ht="15.75">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.75">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="15.75">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" ht="15.75">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15.75">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" ht="15.75">
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75">
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.75">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="15.75">
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.75">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="15.75">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="2:2">
+    <row r="20" spans="2:4">
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2">
+    <row r="22" spans="2:4">
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2">
+    <row r="26" spans="2:4">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="1"/>
+    <row r="28" spans="2:4">
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/HT_Sprint3Features.xlsx
+++ b/trunk/HT_Sprint3Features.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Complete Menus</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>As a player, I want to be able to save progress throughout the levels</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>As a developer, I want to have all of my assets in place</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
   <dimension ref="B2:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -694,7 +700,12 @@
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
